--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_776.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_776.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d6985850-Reviews-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>80</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-The-Sherman-Hotel.h7699797.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_776.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_776.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="374">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1000 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r592272889-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>6985850</t>
+  </si>
+  <si>
+    <t>592272889</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>Just stayed overnight.</t>
+  </si>
+  <si>
+    <t>Older motel, but staff was friendly. No frills was exactly what breakfast was, but we felt safe in the motel.We were given the King bed we asked for and the highest floor available was also granted. staying in this area is not very inexpensive.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r590018036-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>590018036</t>
+  </si>
+  <si>
+    <t>06/23/2018</t>
+  </si>
+  <si>
+    <t>Orange Juice was Tang!</t>
+  </si>
+  <si>
+    <t>The breakfast was ok but the rest was not good. Beds uncomfortable bathrooms need a major update. Didn't give us new towels just new garbage sacks. Think twice I would pay another $10-$50 a night if I new this hotel was gross.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r590004670-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>590004670</t>
+  </si>
+  <si>
+    <t>The Sherman - Great Staff Friendly and Always Accommodating</t>
+  </si>
+  <si>
+    <t>Love staying here at The Sherman Hotel on Ventura. For my business it’s the perfect location. Maricela G. and the staff Leah, Ana, Teresa, and Patty are the reason why I always come back. ~ Michael T.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r588886464-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>588886464</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>Bed Bugs</t>
+  </si>
+  <si>
+    <t>This is the worst hotel I have ever stayed at!  I'm glad it was only for one night.  There was a bedbug that I killed on the bed and I stay awake half the night just waiting.  The room was in terrible condition, they advertised renovated rooms and if this room was renovated (remodeled) I would hate to see the rooms that weren't!  The bathroom was horrible!!  I didn't even open the shower because I was afraid to look in!  Since we were down for a family graduation dinner at a restaurant nearby, I took toilet seat covers with me to use at the hotel!  Wasn't for those, I would have tried everything not to use the toilet!!  MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>This is the worst hotel I have ever stayed at!  I'm glad it was only for one night.  There was a bedbug that I killed on the bed and I stay awake half the night just waiting.  The room was in terrible condition, they advertised renovated rooms and if this room was renovated (remodeled) I would hate to see the rooms that weren't!  The bathroom was horrible!!  I didn't even open the shower because I was afraid to look in!  Since we were down for a family graduation dinner at a restaurant nearby, I took toilet seat covers with me to use at the hotel!  Wasn't for those, I would have tried everything not to use the toilet!!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r588204397-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>588204397</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>Room #121</t>
+  </si>
+  <si>
+    <t>The 1st room they gave me was horrible. It was nothing like the picture. Dirty carpet, mold in the shower, and bed skirts were dirty. I asked for another room which was 122 and it had wood floring and looked more decent. Ask to see the room 1st since not all are remodel. This hotel is definitely a 2 star, looks nicer in the pictures.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r585842985-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>585842985</t>
+  </si>
+  <si>
+    <t>06/07/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disappointed </t>
+  </si>
+  <si>
+    <t>What a disappointment the place was not anywhere near the advertised condition in any wayThe place was clean and well stocked but the bed was broken the furniture was old and nasty the shower only barely worked and the access to the building was difficult It’s in a terrible neighborhood the parking was lot was packed every night when we came back to the hotel You don’t want to park on the street so had to wait for a car to leave....There is no one on site you have to call s number to get anyone to helpFor anything and no maid service We were supposed toStay for five days and left after two MoreShow less</t>
+  </si>
+  <si>
+    <t>What a disappointment the place was not anywhere near the advertised condition in any wayThe place was clean and well stocked but the bed was broken the furniture was old and nasty the shower only barely worked and the access to the building was difficult It’s in a terrible neighborhood the parking was lot was packed every night when we came back to the hotel You don’t want to park on the street so had to wait for a car to leave....There is no one on site you have to call s number to get anyone to helpFor anything and no maid service We were supposed toStay for five days and left after two More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r577658677-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>577658677</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>WONDERFUL</t>
+  </si>
+  <si>
+    <t>Maricela is so helpful and sweet makes us feel like we are home she is always welcoming even if she looks extremely busy when we enter the lobby the breakfast is simple but it's something light to start the day . Very good location right next to universal studios we had a great family vacation no doubt ! For sure we will be coming back here and making our reservation directly with the hotel they have AAA discount which is amazing saved a couple of bucks.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Felix C, General Manager at The Sherman Hotel, responded to this reviewResponded May 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2018</t>
+  </si>
+  <si>
+    <t>Maricela is so helpful and sweet makes us feel like we are home she is always welcoming even if she looks extremely busy when we enter the lobby the breakfast is simple but it's something light to start the day . Very good location right next to universal studios we had a great family vacation no doubt ! For sure we will be coming back here and making our reservation directly with the hotel they have AAA discount which is amazing saved a couple of bucks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r577426186-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>577426186</t>
+  </si>
+  <si>
+    <t>05/02/2018</t>
+  </si>
+  <si>
+    <t>It was a decent afford able place to stay close to LA</t>
+  </si>
+  <si>
+    <t>I needed a affordable room for me and my kiddos for a quick weekend trip to Universal Studios. This place had decent rates and okay ratings. Overall, it accomplished what I needed it to. Best feature: lobby and front desk people. Worst feature: rooms are pretty old and run down. The breakfast in the morning was decent. I felt safe at this location with my kids which to me is huge. The lobby is very pretty. And the staff was super nice.We couldn't get the remote for the TV to work because you have to change settings and the instructions were posted on the door and we didn't see this until the next day but that is not the end of the world.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>I needed a affordable room for me and my kiddos for a quick weekend trip to Universal Studios. This place had decent rates and okay ratings. Overall, it accomplished what I needed it to. Best feature: lobby and front desk people. Worst feature: rooms are pretty old and run down. The breakfast in the morning was decent. I felt safe at this location with my kids which to me is huge. The lobby is very pretty. And the staff was super nice.We couldn't get the remote for the TV to work because you have to change settings and the instructions were posted on the door and we didn't see this until the next day but that is not the end of the world.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r577244669-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>577244669</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>My friend and I stayed here for vacation and it was AWFUL. There was non stop problems from the moment we arrived. Staff was incredibly rude, wifi did not work, maids did not clean the room ONCE in the duration of our stay. The room was very dirty and had an awful smell. We were promised free parking for our stay but the parking lot was almost always full, they told us it wasn’t their problem and to pay for road parking. The other guests were having hookers in and out of their rooms, they were also extremely loud. The maids were threatening us saying “If they weren’t in a uniform they would beat us up”. There was always cops in the parking lot and going into rooms. We felt incredibly unsafe here and did not finish our stay here, trust me, spend the extra money and stay somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Felix C, General Manager at The Sherman Hotel, responded to this reviewResponded May 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2018</t>
+  </si>
+  <si>
+    <t>My friend and I stayed here for vacation and it was AWFUL. There was non stop problems from the moment we arrived. Staff was incredibly rude, wifi did not work, maids did not clean the room ONCE in the duration of our stay. The room was very dirty and had an awful smell. We were promised free parking for our stay but the parking lot was almost always full, they told us it wasn’t their problem and to pay for road parking. The other guests were having hookers in and out of their rooms, they were also extremely loud. The maids were threatening us saying “If they weren’t in a uniform they would beat us up”. There was always cops in the parking lot and going into rooms. We felt incredibly unsafe here and did not finish our stay here, trust me, spend the extra money and stay somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r570300896-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>570300896</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice room good location </t>
+  </si>
+  <si>
+    <t>I had been disappointed at another hotel in the area and this was so much better.  Many outlets in convenient places.  Hardwood floor so room felt much cleaner.  Just down the street from Galleria where I walked to cheesecake factory and also Starbucks.   Was less expensive to book at the desk than to try on line.  Was also less expensive than other worse hotel.  Typical continental breakfast which is not best for a diabetic.  No fridge or microwave for saving your leftovers.  I would visit againMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>I had been disappointed at another hotel in the area and this was so much better.  Many outlets in convenient places.  Hardwood floor so room felt much cleaner.  Just down the street from Galleria where I walked to cheesecake factory and also Starbucks.   Was less expensive to book at the desk than to try on line.  Was also less expensive than other worse hotel.  Typical continental breakfast which is not best for a diabetic.  No fridge or microwave for saving your leftovers.  I would visit againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r567780456-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>567780456</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>Really cold !</t>
+  </si>
+  <si>
+    <t>I went for a family trip to universal studios and it was raining. We stayed there 2 nights but there heaters weren’t working I booked 3 rooms for my family and I and 2 of the rooms were super cold and we only had a thin sheet for a blanket my 2 year old kept waking up crying because it was cold I had to literally put on like 3 layers of Clothes. We got there late at night and the person checking us in told us that some of the heaters didn’t work if we would take the room like that. It was like 1AM so of course we said yes. I don’t think I would stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>I went for a family trip to universal studios and it was raining. We stayed there 2 nights but there heaters weren’t working I booked 3 rooms for my family and I and 2 of the rooms were super cold and we only had a thin sheet for a blanket my 2 year old kept waking up crying because it was cold I had to literally put on like 3 layers of Clothes. We got there late at night and the person checking us in told us that some of the heaters didn’t work if we would take the room like that. It was like 1AM so of course we said yes. I don’t think I would stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r566570338-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>566570338</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t>Weak wifi, thin walls, broken card key access &amp; no housekeeping</t>
+  </si>
+  <si>
+    <t>Here's what's wrong with the Sherman Hotel1) First, it is a motel and not a hotel2) Walls are thin and you'll hear all the noises above you and from the rooms next to you.3) We stayed in Room 107 and the key card access entry system was broken.  Each time we want to enter our room, I have to ask the Front desk rep to walk down to Room 107 to open the door for us using his Master key card.  4) We put the "Please clean room" sign on our door and left for the day.  When we return 8 hours later, the room was not cleaned.5) Internet wifi was unreliable and weak.  Unable to watch movies.6) For the price we paid, it was definitely NOT worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Here's what's wrong with the Sherman Hotel1) First, it is a motel and not a hotel2) Walls are thin and you'll hear all the noises above you and from the rooms next to you.3) We stayed in Room 107 and the key card access entry system was broken.  Each time we want to enter our room, I have to ask the Front desk rep to walk down to Room 107 to open the door for us using his Master key card.  4) We put the "Please clean room" sign on our door and left for the day.  When we return 8 hours later, the room was not cleaned.5) Internet wifi was unreliable and weak.  Unable to watch movies.6) For the price we paid, it was definitely NOT worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r561688111-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>561688111</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place to stay </t>
+  </si>
+  <si>
+    <t>We had clean room and staff was great no problems at all I would stay here again for sure thanks Sam Pasion . The breakfast is easy and convenient everything was clean more than I expected location is rite and price was rite thank you Sherman hotel MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>We had clean room and staff was great no problems at all I would stay here again for sure thanks Sam Pasion . The breakfast is easy and convenient everything was clean more than I expected location is rite and price was rite thank you Sherman hotel More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r561266220-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>561266220</t>
+  </si>
+  <si>
+    <t>02/18/2018</t>
+  </si>
+  <si>
+    <t>Far from the best</t>
+  </si>
+  <si>
+    <t>My one night stay started off poorly and went down hill. Check in time isn't until 3:00 and I got there almost on the hour. But I still had to wait almost an hour for my room to be cleaned.The room was poorly lit. But the closet space was even darker and I had to go find a housekeeper to get hangers!I went out for the evening and returned at 11:00 to find all of the parking occupied. I finally got a spot at the opposite end of the property. The bed was reasonably comfortable. Breakfast is a bad joke.I could go on but that's enough. I won't be back.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>My one night stay started off poorly and went down hill. Check in time isn't until 3:00 and I got there almost on the hour. But I still had to wait almost an hour for my room to be cleaned.The room was poorly lit. But the closet space was even darker and I had to go find a housekeeper to get hangers!I went out for the evening and returned at 11:00 to find all of the parking occupied. I finally got a spot at the opposite end of the property. The bed was reasonably comfortable. Breakfast is a bad joke.I could go on but that's enough. I won't be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r559248847-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>559248847</t>
+  </si>
+  <si>
+    <t>02/08/2018</t>
+  </si>
+  <si>
+    <t>Amazing HouseKeeping</t>
+  </si>
+  <si>
+    <t>I felt welcomed as soon as I got to the hotel the service was incredible the housekeeping worker Lulu was super nice and kind she did an excellent job with welcoming me I would definitely come back again !MoreShow less</t>
+  </si>
+  <si>
+    <t>I felt welcomed as soon as I got to the hotel the service was incredible the housekeeping worker Lulu was super nice and kind she did an excellent job with welcoming me I would definitely come back again !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r556388383-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>556388383</t>
+  </si>
+  <si>
+    <t>01/25/2018</t>
+  </si>
+  <si>
+    <t>You Get What You Pay For!</t>
+  </si>
+  <si>
+    <t>A real dump.  We should have guessed that the low rate was too good to be true.  The property was nothing like the photos shown on hotel websites.  We knew we were in trouble when we arrived and used the bathroom in our room and there were no towels provided.  Towels were not available until late in the evening.  The property was very poorly managed and front desk staff were more interested in texting than attending to guests needs. The continental breakfast was a joke, and the WiFi was non-existent.  Guests were re-directed to the unsecured network of a neighboring business.  Overall, our stay was extremely uncomfortable and unpleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Felix C, General Manager at The Sherman Hotel, responded to this reviewResponded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2018</t>
+  </si>
+  <si>
+    <t>A real dump.  We should have guessed that the low rate was too good to be true.  The property was nothing like the photos shown on hotel websites.  We knew we were in trouble when we arrived and used the bathroom in our room and there were no towels provided.  Towels were not available until late in the evening.  The property was very poorly managed and front desk staff were more interested in texting than attending to guests needs. The continental breakfast was a joke, and the WiFi was non-existent.  Guests were re-directed to the unsecured network of a neighboring business.  Overall, our stay was extremely uncomfortable and unpleasant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r554849346-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>554849346</t>
+  </si>
+  <si>
+    <t>01/19/2018</t>
+  </si>
+  <si>
+    <t>Accommodating</t>
+  </si>
+  <si>
+    <t>Your stay cannot get any better here. The location is great, the rooms are modern and clean and most importantly the entire staff is absolutely amazing and accommodating. Maricela and Felix at the front desk are more than helpful. Thank you all Sherman Hotel staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>Your stay cannot get any better here. The location is great, the rooms are modern and clean and most importantly the entire staff is absolutely amazing and accommodating. Maricela and Felix at the front desk are more than helpful. Thank you all Sherman Hotel staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r554020326-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>554020326</t>
+  </si>
+  <si>
+    <t>01/15/2018</t>
+  </si>
+  <si>
+    <t>Patchell</t>
+  </si>
+  <si>
+    <t>I’d just like to say this place was great the young lady at the front desk was absolutely amazing and very efficient.Also the room was Amazing and very clean.I would recommend this hotel to my closest friends.Thank you Maricela for your helpMoreShow less</t>
+  </si>
+  <si>
+    <t>Felix C, General Manager at The Sherman Hotel, responded to this reviewResponded January 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2018</t>
+  </si>
+  <si>
+    <t>I’d just like to say this place was great the young lady at the front desk was absolutely amazing and very efficient.Also the room was Amazing and very clean.I would recommend this hotel to my closest friends.Thank you Maricela for your helpMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r542742230-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>542742230</t>
+  </si>
+  <si>
+    <t>11/22/2017</t>
+  </si>
+  <si>
+    <t>Meh</t>
+  </si>
+  <si>
+    <t>The photos make this hotel look pretty ok. The location is convenient. The staff was helpful. Having said that, we were greeted by a roach, which I kind of expect in a hot climate.  The room was clean and it seemed like they had tried to spruce the place up but the bathroom and the kitchenette were old and poorly maintained.  They ran out of washcloths and hand towels while we were there.  The housekeeper did a good job cleaning but didn't have all the supplies needed to leave the room ready. The Sherman could be a really cute place with some time and money put into it. I think we paid about $40 a night too much for it's current condition.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>The photos make this hotel look pretty ok. The location is convenient. The staff was helpful. Having said that, we were greeted by a roach, which I kind of expect in a hot climate.  The room was clean and it seemed like they had tried to spruce the place up but the bathroom and the kitchenette were old and poorly maintained.  They ran out of washcloths and hand towels while we were there.  The housekeeper did a good job cleaning but didn't have all the supplies needed to leave the room ready. The Sherman could be a really cute place with some time and money put into it. I think we paid about $40 a night too much for it's current condition.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r511088965-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>511088965</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Avvvverage hotel</t>
+  </si>
+  <si>
+    <t>A brief run down of the facility, the room was respectably clean and tidy. Bad lighting as they didnt have room lights but sidetable lamps. TV didnt work. But these are not the reasons why my experience at the hotel was unpleasant. On Saturday afternoon I had an uber driver that picked me up from the hotel reception and dropped me off at my requested destination. Later on that evening at 11pm I had a knock on my door. To my surprise it was the Uber driver, asking me if he could come into my room.... (and of course I said no!!). Then he asked me if I wanted to go out for a drink (again I said no). I cant help but assumed that the receptionist must of told him my room number and I just think that is a breach of guest's privacy and there should be serious actions taken by the management team to ensure nothing like this happens again to anyone else!! Luckily the guy was harmless and Im someone who is capable of defending myself in those kind of situatutions. But if it had happened to another girl-solo traveller then who knows what might of happened!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Felix C, General Manager at The Sherman Hotel, responded to this reviewResponded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>A brief run down of the facility, the room was respectably clean and tidy. Bad lighting as they didnt have room lights but sidetable lamps. TV didnt work. But these are not the reasons why my experience at the hotel was unpleasant. On Saturday afternoon I had an uber driver that picked me up from the hotel reception and dropped me off at my requested destination. Later on that evening at 11pm I had a knock on my door. To my surprise it was the Uber driver, asking me if he could come into my room.... (and of course I said no!!). Then he asked me if I wanted to go out for a drink (again I said no). I cant help but assumed that the receptionist must of told him my room number and I just think that is a breach of guest's privacy and there should be serious actions taken by the management team to ensure nothing like this happens again to anyone else!! Luckily the guy was harmless and Im someone who is capable of defending myself in those kind of situatutions. But if it had happened to another girl-solo traveller then who knows what might of happened!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r507392100-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>507392100</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>NOT a Hotel</t>
+  </si>
+  <si>
+    <t>This is a run down MOTEL in desperate need of a full renovation.  The towels were old, and one was even blood stained. The bathroom was barely tolerable. The room was loud. One plus, the bed was clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Felix C, General Manager at The Sherman Hotel, responded to this reviewResponded August 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2017</t>
+  </si>
+  <si>
+    <t>This is a run down MOTEL in desperate need of a full renovation.  The towels were old, and one was even blood stained. The bathroom was barely tolerable. The room was loud. One plus, the bed was clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r498266459-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>498266459</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>The worst customer service.....EVER.</t>
+  </si>
+  <si>
+    <t>I booked a one night stay with Sherman Hotels.  Upon arriving for my CONFIRMED 12pm check in, the young lady at the front desk, Ana, let me know that check in is not until 3pm.  I showed her my confirmation page where it CLEARLY says check in is at 12pm.  If I would've know it wasn't until 3pm I would've arrived later.  She was absolutely unhelpful and her only solution to my problem was "would you like to cancel?".  I work in customer service myself and as far as I'm concerned even if a situation is out of your hands, you can at least act like you care about your upset customer.  But not Ana.  The actual stay was pleasant.  Cleaning staff was friendly.  I check out after one night and get back home.  Upon arriving the next day I notice a few charges from Sherman hotels, one for $100 deposit, another for $137, which were both fine.  However there was another charge for $227.  It was showing up as pending, however it was already taken out of my balance.  I call the hotel and get, guess who, Ana.  She claimed that they got a new system and it wasn't showing up on her end.  She said she would call back to let me know what she was able to do.  Never got a call back.  So I call her back and she said oh yeah I can't do anything...I booked a one night stay with Sherman Hotels.  Upon arriving for my CONFIRMED 12pm check in, the young lady at the front desk, Ana, let me know that check in is not until 3pm.  I showed her my confirmation page where it CLEARLY says check in is at 12pm.  If I would've know it wasn't until 3pm I would've arrived later.  She was absolutely unhelpful and her only solution to my problem was "would you like to cancel?".  I work in customer service myself and as far as I'm concerned even if a situation is out of your hands, you can at least act like you care about your upset customer.  But not Ana.  The actual stay was pleasant.  Cleaning staff was friendly.  I check out after one night and get back home.  Upon arriving the next day I notice a few charges from Sherman hotels, one for $100 deposit, another for $137, which were both fine.  However there was another charge for $227.  It was showing up as pending, however it was already taken out of my balance.  I call the hotel and get, guess who, Ana.  She claimed that they got a new system and it wasn't showing up on her end.  She said she would call back to let me know what she was able to do.  Never got a call back.  So I call her back and she said oh yeah I can't do anything about it, my manager works tomorrow.  Ok......thanks for the call back.  Long story short I am very disappointed in the customer service I received from this hotel, and they kept charging until it was over $700 in charges.......total nightmare.  NEVER STAYING HERE AGAIN.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Felix C, General Manager at The Sherman Hotel, responded to this reviewResponded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2017</t>
+  </si>
+  <si>
+    <t>I booked a one night stay with Sherman Hotels.  Upon arriving for my CONFIRMED 12pm check in, the young lady at the front desk, Ana, let me know that check in is not until 3pm.  I showed her my confirmation page where it CLEARLY says check in is at 12pm.  If I would've know it wasn't until 3pm I would've arrived later.  She was absolutely unhelpful and her only solution to my problem was "would you like to cancel?".  I work in customer service myself and as far as I'm concerned even if a situation is out of your hands, you can at least act like you care about your upset customer.  But not Ana.  The actual stay was pleasant.  Cleaning staff was friendly.  I check out after one night and get back home.  Upon arriving the next day I notice a few charges from Sherman hotels, one for $100 deposit, another for $137, which were both fine.  However there was another charge for $227.  It was showing up as pending, however it was already taken out of my balance.  I call the hotel and get, guess who, Ana.  She claimed that they got a new system and it wasn't showing up on her end.  She said she would call back to let me know what she was able to do.  Never got a call back.  So I call her back and she said oh yeah I can't do anything...I booked a one night stay with Sherman Hotels.  Upon arriving for my CONFIRMED 12pm check in, the young lady at the front desk, Ana, let me know that check in is not until 3pm.  I showed her my confirmation page where it CLEARLY says check in is at 12pm.  If I would've know it wasn't until 3pm I would've arrived later.  She was absolutely unhelpful and her only solution to my problem was "would you like to cancel?".  I work in customer service myself and as far as I'm concerned even if a situation is out of your hands, you can at least act like you care about your upset customer.  But not Ana.  The actual stay was pleasant.  Cleaning staff was friendly.  I check out after one night and get back home.  Upon arriving the next day I notice a few charges from Sherman hotels, one for $100 deposit, another for $137, which were both fine.  However there was another charge for $227.  It was showing up as pending, however it was already taken out of my balance.  I call the hotel and get, guess who, Ana.  She claimed that they got a new system and it wasn't showing up on her end.  She said she would call back to let me know what she was able to do.  Never got a call back.  So I call her back and she said oh yeah I can't do anything about it, my manager works tomorrow.  Ok......thanks for the call back.  Long story short I am very disappointed in the customer service I received from this hotel, and they kept charging until it was over $700 in charges.......total nightmare.  NEVER STAYING HERE AGAIN.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r495941107-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>495941107</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>Fabulous team and property</t>
+  </si>
+  <si>
+    <t>I stayed 12 nights recently - it was my fourth stay at The Sherman Hotel.  Every year I look forward to seeing the smiling, friendly, helpful staff, led by Felix the General Manager.   The rooms are very clean; some with carpet and some with wood floor.   They serve a simple breakfast in the lobby and all the guests from all over the world meet.  The hotel has been majorly renovated over the last four years, every year it is nicer, but the staff remain and are the core of the experience here.  The tone comes from the top and obviously Felix sets the tone, but maintenance, housekeeping, and front desk staff are excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed 12 nights recently - it was my fourth stay at The Sherman Hotel.  Every year I look forward to seeing the smiling, friendly, helpful staff, led by Felix the General Manager.   The rooms are very clean; some with carpet and some with wood floor.   They serve a simple breakfast in the lobby and all the guests from all over the world meet.  The hotel has been majorly renovated over the last four years, every year it is nicer, but the staff remain and are the core of the experience here.  The tone comes from the top and obviously Felix sets the tone, but maintenance, housekeeping, and front desk staff are excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r493804262-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>493804262</t>
+  </si>
+  <si>
+    <t>06/17/2017</t>
+  </si>
+  <si>
+    <t>Great deal, great staff!</t>
+  </si>
+  <si>
+    <t>After a HORRIBLE experience using Airbnb, my boyfriend and I needed a last-minute place. I had already booked The Sherman for the next two nights, but we called them a night early asking if we can book a room. Despite being around 8:30pm, they were able to accommodate us for around $99. Not bad! The next two days I had booked through Booking.com, and it cost me $220. For the area, this price is great.
+Sherman Hotel is not the Hilton, but it is very comfortable, clean, there are no shady people milling about, the pool is crystal clear, and the noise level was kept at a minimum. Free breakfast was good, with cereal, bagels, toast and coffee. They are great at accommodating your needs. For example, I brought my makeup case with me. We had to check out of our room the first night, them we would check back in for our other room that I had previously booked for two nights. Problem was, we had to keep our things in the car while at Universal Studios for the day. Worried about my makeup melting, I asked what I could do. They kept my makeup case for me in a backroom with my name on it, so I didn't have to leave it in the car! We also needed extra towels, and were given them right away.
+On top of all that, I had mentioned off-hand that it was...After a HORRIBLE experience using Airbnb, my boyfriend and I needed a last-minute place. I had already booked The Sherman for the next two nights, but we called them a night early asking if we can book a room. Despite being around 8:30pm, they were able to accommodate us for around $99. Not bad! The next two days I had booked through Booking.com, and it cost me $220. For the area, this price is great.Sherman Hotel is not the Hilton, but it is very comfortable, clean, there are no shady people milling about, the pool is crystal clear, and the noise level was kept at a minimum. Free breakfast was good, with cereal, bagels, toast and coffee. They are great at accommodating your needs. For example, I brought my makeup case with me. We had to check out of our room the first night, them we would check back in for our other room that I had previously booked for two nights. Problem was, we had to keep our things in the car while at Universal Studios for the day. Worried about my makeup melting, I asked what I could do. They kept my makeup case for me in a backroom with my name on it, so I didn't have to leave it in the car! We also needed extra towels, and were given them right away.On top of all that, I had mentioned off-hand that it was my birthday the next day. When we came home from our second day spent at Universal, there were flowers, cupcakes and a birthday card waiting for me on the bed, signed by the staff!! I mean, who does that?!? I thought the gesture was very sweet. I think for the price and for the staff, The Sherman Hotel is an excellent choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>After a HORRIBLE experience using Airbnb, my boyfriend and I needed a last-minute place. I had already booked The Sherman for the next two nights, but we called them a night early asking if we can book a room. Despite being around 8:30pm, they were able to accommodate us for around $99. Not bad! The next two days I had booked through Booking.com, and it cost me $220. For the area, this price is great.
+Sherman Hotel is not the Hilton, but it is very comfortable, clean, there are no shady people milling about, the pool is crystal clear, and the noise level was kept at a minimum. Free breakfast was good, with cereal, bagels, toast and coffee. They are great at accommodating your needs. For example, I brought my makeup case with me. We had to check out of our room the first night, them we would check back in for our other room that I had previously booked for two nights. Problem was, we had to keep our things in the car while at Universal Studios for the day. Worried about my makeup melting, I asked what I could do. They kept my makeup case for me in a backroom with my name on it, so I didn't have to leave it in the car! We also needed extra towels, and were given them right away.
+On top of all that, I had mentioned off-hand that it was...After a HORRIBLE experience using Airbnb, my boyfriend and I needed a last-minute place. I had already booked The Sherman for the next two nights, but we called them a night early asking if we can book a room. Despite being around 8:30pm, they were able to accommodate us for around $99. Not bad! The next two days I had booked through Booking.com, and it cost me $220. For the area, this price is great.Sherman Hotel is not the Hilton, but it is very comfortable, clean, there are no shady people milling about, the pool is crystal clear, and the noise level was kept at a minimum. Free breakfast was good, with cereal, bagels, toast and coffee. They are great at accommodating your needs. For example, I brought my makeup case with me. We had to check out of our room the first night, them we would check back in for our other room that I had previously booked for two nights. Problem was, we had to keep our things in the car while at Universal Studios for the day. Worried about my makeup melting, I asked what I could do. They kept my makeup case for me in a backroom with my name on it, so I didn't have to leave it in the car! We also needed extra towels, and were given them right away.On top of all that, I had mentioned off-hand that it was my birthday the next day. When we came home from our second day spent at Universal, there were flowers, cupcakes and a birthday card waiting for me on the bed, signed by the staff!! I mean, who does that?!? I thought the gesture was very sweet. I think for the price and for the staff, The Sherman Hotel is an excellent choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r474680652-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>474680652</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>For anyone looking for an economical place in an affluent community like Sherman Oaks, this place may be a good location. Very adjacent to restaurants and places to go to in LA. Thank you Mikey for the excellent service. Keep it up.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Felix C, General Manager at The Sherman Hotel, responded to this reviewResponded April 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2017</t>
+  </si>
+  <si>
+    <t>For anyone looking for an economical place in an affluent community like Sherman Oaks, this place may be a good location. Very adjacent to restaurants and places to go to in LA. Thank you Mikey for the excellent service. Keep it up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r468692511-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>468692511</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>clean and not expensive</t>
+  </si>
+  <si>
+    <t>this hotel is very affordable it sis super clean the only service is a continental breakfast otherwise there is only soft drink machines you can hear everything outside&lt; traffic remember you are on ventura blv &gt;making it hard if you are a light sleeper .and i found the ac. unit not that goodMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Felix C, General Manager at The Sherman Hotel, responded to this reviewResponded March 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2017</t>
+  </si>
+  <si>
+    <t>this hotel is very affordable it sis super clean the only service is a continental breakfast otherwise there is only soft drink machines you can hear everything outside&lt; traffic remember you are on ventura blv &gt;making it hard if you are a light sleeper .and i found the ac. unit not that goodMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r467436898-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>467436898</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>Amazing stay</t>
+  </si>
+  <si>
+    <t>I've been staying at the Sherman hotel for 2 months now and I definitely recommend it to everyone who's looking for economy and quality stay. I want to start off by telling that there is no better place in Sherman Oaks for that price. It is close to freeway, restaurants and all the other tourist attraction places. The hotel is newly renovated, rooms are always clean as well as the design and interior is high rate. I want to separately emphasize great customer service and friendly atmosphere at the hotel. All staff members are extremely polite and are always happy to help you out with everything. Special and big thank you to Arash and Mickey for always going out of their way to help meet out. Very professional and responsive. I want to thank all people working at the hotel for making my stay comfortable and joyful. KarimaMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>I've been staying at the Sherman hotel for 2 months now and I definitely recommend it to everyone who's looking for economy and quality stay. I want to start off by telling that there is no better place in Sherman Oaks for that price. It is close to freeway, restaurants and all the other tourist attraction places. The hotel is newly renovated, rooms are always clean as well as the design and interior is high rate. I want to separately emphasize great customer service and friendly atmosphere at the hotel. All staff members are extremely polite and are always happy to help you out with everything. Special and big thank you to Arash and Mickey for always going out of their way to help meet out. Very professional and responsive. I want to thank all people working at the hotel for making my stay comfortable and joyful. KarimaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r465701361-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>465701361</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>Excellent and very good priced</t>
+  </si>
+  <si>
+    <t>After looking at at least 5 hotels on Ventura Blvd. I finally found this amazing place. Hardwood floors in a Motel unheard of !!!!!!! Newly remodeled. Tasty designed bath. Clean ! Clean ! Superclean! Very friendly staff. I would highly recommend this Hotel. Don't go somewhere else you will not find a place like this at this not expensive price.One thing : I am absolutely not affiliated with the owner or manager. I am pretty critical and picky about hotels and restaurant and bar etc. So my opinion is pretty reliable. Thank you the owner manager and the staff. DavidMoreShow less</t>
+  </si>
+  <si>
+    <t>After looking at at least 5 hotels on Ventura Blvd. I finally found this amazing place. Hardwood floors in a Motel unheard of !!!!!!! Newly remodeled. Tasty designed bath. Clean ! Clean ! Superclean! Very friendly staff. I would highly recommend this Hotel. Don't go somewhere else you will not find a place like this at this not expensive price.One thing : I am absolutely not affiliated with the owner or manager. I am pretty critical and picky about hotels and restaurant and bar etc. So my opinion is pretty reliable. Thank you the owner manager and the staff. DavidMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r465240497-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>465240497</t>
+  </si>
+  <si>
+    <t>03/07/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genuine Customer Service </t>
+  </si>
+  <si>
+    <t>I was up at 1:30 a.m and went to the lobby to ask help from the front desk. And I was very lucky to be assisted by Bassem who was very helpful and kind to help us with our request. Trully an awesome guy.. happy customer hereMoreShow less</t>
+  </si>
+  <si>
+    <t>I was up at 1:30 a.m and went to the lobby to ask help from the front desk. And I was very lucky to be assisted by Bassem who was very helpful and kind to help us with our request. Trully an awesome guy.. happy customer hereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r463297092-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>463297092</t>
+  </si>
+  <si>
+    <t>02/27/2017</t>
+  </si>
+  <si>
+    <t>Great location but that's about it</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 nights with a friend at the end of January. This is a motel with very few amenities. The room barely had essentials such as towels and wash cloths. The room was pretty small and had a faint smell of mold. At night we got very cold and didn't realize that the AC was the heater. People passing by can easily see in the room. One of the days we returned to our room we found a cigar in our bed. We didn't say anything to the front desk. There was also no phone in the room in order to call the front desk. The location was great about 15 mins to Hollywood Blvd. There are restaurants nearby as well. MoreShow less</t>
+  </si>
+  <si>
+    <t>Felix C, General Manager at The Sherman Hotel, responded to this reviewResponded March 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 nights with a friend at the end of January. This is a motel with very few amenities. The room barely had essentials such as towels and wash cloths. The room was pretty small and had a faint smell of mold. At night we got very cold and didn't realize that the AC was the heater. People passing by can easily see in the room. One of the days we returned to our room we found a cigar in our bed. We didn't say anything to the front desk. There was also no phone in the room in order to call the front desk. The location was great about 15 mins to Hollywood Blvd. There are restaurants nearby as well. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r460559072-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>460559072</t>
+  </si>
+  <si>
+    <t>02/16/2017</t>
+  </si>
+  <si>
+    <t>Helpful and courteous CSR.</t>
+  </si>
+  <si>
+    <t>Overall my stay was good. The rep at the front desk, Maricela, was especially helpful in explaining the hotels policies and eased my mind on my stay at The Sherman hotel. Maricela also had great ideas to improve communication between  co workers.MoreShow less</t>
+  </si>
+  <si>
+    <t>Felix C, General Manager at The Sherman Hotel, responded to this reviewResponded February 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2017</t>
+  </si>
+  <si>
+    <t>Overall my stay was good. The rep at the front desk, Maricela, was especially helpful in explaining the hotels policies and eased my mind on my stay at The Sherman hotel. Maricela also had great ideas to improve communication between  co workers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r459912977-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>459912977</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>Thank You Mikey for all your help during our stay.</t>
+  </si>
+  <si>
+    <t>Great hotel, Mikey at front desk is just awesome always helping in everything we need .Rooms are clean, very competitive prices.nice free breakfast with wifi.nice location, feel very safe place. I will definitely come back and stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Felix C, General Manager at The Sherman Hotel, responded to this reviewResponded February 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2017</t>
+  </si>
+  <si>
+    <t>Great hotel, Mikey at front desk is just awesome always helping in everything we need .Rooms are clean, very competitive prices.nice free breakfast with wifi.nice location, feel very safe place. I will definitely come back and stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r459464388-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>459464388</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Great staff,price,hotel and stay</t>
+  </si>
+  <si>
+    <t>Lovely spot, Felix the General Manager and Mikey at front desk were incredibly helpful and went that extra mile to make my stay as impeccable as possible. This has now become my Hotel of choice in the area every time I visit.Thanks again!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Felix C, General Manager at The Sherman Hotel, responded to this reviewResponded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Lovely spot, Felix the General Manager and Mikey at front desk were incredibly helpful and went that extra mile to make my stay as impeccable as possible. This has now become my Hotel of choice in the area every time I visit.Thanks again!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r458418945-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>458418945</t>
+  </si>
+  <si>
+    <t>02/09/2017</t>
+  </si>
+  <si>
+    <t>Quite a gem.</t>
+  </si>
+  <si>
+    <t>This hotel defintley surprised me by being quite a lovely little place. The rooms are clean and we'll priced.Sonny,Mickey and Arash are delightful and help make any stay here as comfortable as possible.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel defintley surprised me by being quite a lovely little place. The rooms are clean and we'll priced.Sonny,Mickey and Arash are delightful and help make any stay here as comfortable as possible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r458225452-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>458225452</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>Lovely get away</t>
+  </si>
+  <si>
+    <t>This place is a wonderful hotel the staff is nice. If you use any hotel booking sites make sure its done in advance or the check can take a couple extra minutes but other than that everything went smoothly. The rooms are comfortable and private. Definitely would reccomend this to anyone looking for a good place to sleep at a pretty great price. Mikey was helpful as was all the staff here. And from what I saw they will go to extra lengths to resolve any issues you may have.MoreShow less</t>
+  </si>
+  <si>
+    <t>This place is a wonderful hotel the staff is nice. If you use any hotel booking sites make sure its done in advance or the check can take a couple extra minutes but other than that everything went smoothly. The rooms are comfortable and private. Definitely would reccomend this to anyone looking for a good place to sleep at a pretty great price. Mikey was helpful as was all the staff here. And from what I saw they will go to extra lengths to resolve any issues you may have.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r458177329-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>458177329</t>
+  </si>
+  <si>
+    <t>Chill stay</t>
+  </si>
+  <si>
+    <t>Checking in was a breeze, and the facilities are great. Arash helped me out, I got checked into a room quickly and everything went very smooth. Rooms are nice and quiet. 10/10 would recommend if your in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Checking in was a breeze, and the facilities are great. Arash helped me out, I got checked into a room quickly and everything went very smooth. Rooms are nice and quiet. 10/10 would recommend if your in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r457442484-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>457442484</t>
+  </si>
+  <si>
+    <t>02/05/2017</t>
+  </si>
+  <si>
+    <t>Great Location, great Price</t>
+  </si>
+  <si>
+    <t>Nice, clean, very friendly Staff from Reception Desk , Mr. Arash to the Maid Service.Helpful in every way. We have stayed their twice already, great Location, great Price for Los Angeles Metropol. Beverly Hills over the Hill just 20 minutes, Downtown Los Angeles 17 minutes, quite, secured Hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Felix C, General Manager at The Sherman Hotel, responded to this reviewResponded February 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2017</t>
+  </si>
+  <si>
+    <t>Nice, clean, very friendly Staff from Reception Desk , Mr. Arash to the Maid Service.Helpful in every way. We have stayed their twice already, great Location, great Price for Los Angeles Metropol. Beverly Hills over the Hill just 20 minutes, Downtown Los Angeles 17 minutes, quite, secured Hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r457151899-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>457151899</t>
+  </si>
+  <si>
+    <t>02/04/2017</t>
+  </si>
+  <si>
+    <t>Great value for the location</t>
+  </si>
+  <si>
+    <t>This is an older hotel but very clean and the location and price is definitely a big plus.  The manager Mikey was very helpful, pleasant, and accommodating.   We were so pleased, we booked rooms for an additional stay on our return trip,MoreShow less</t>
+  </si>
+  <si>
+    <t>This is an older hotel but very clean and the location and price is definitely a big plus.  The manager Mikey was very helpful, pleasant, and accommodating.   We were so pleased, we booked rooms for an additional stay on our return trip,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r457139277-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>457139277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacation </t>
+  </si>
+  <si>
+    <t>Was a pleasure stay. The room was very clean and neat. The service was perfect. All that we expect was fulfilled. At the check ou we're gladly attended for Bassem who were a great and respectful person. I definitely recommend this place for families and who ever wants a quiet and warm place to stay. ❤❤ MoreShow less</t>
+  </si>
+  <si>
+    <t>Was a pleasure stay. The room was very clean and neat. The service was perfect. All that we expect was fulfilled. At the check ou we're gladly attended for Bassem who were a great and respectful person. I definitely recommend this place for families and who ever wants a quiet and warm place to stay. ❤❤ More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r456070271-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>456070271</t>
+  </si>
+  <si>
+    <t>01/30/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Very welcome and comfortable </t>
+  </si>
+  <si>
+    <t>I stayed in this hotel 5 days. They met me so welcome and make check in very quickly. Guy Arash on reception were very intelligent. Hotel is clean and room is big and clean also. Price is good. Next time I will plan to stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel 5 days. They met me so welcome and make check in very quickly. Guy Arash on reception were very intelligent. Hotel is clean and room is big and clean also. Price is good. Next time I will plan to stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r456042410-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>456042410</t>
+  </si>
+  <si>
+    <t>Me egor shcherbina</t>
+  </si>
+  <si>
+    <t>I have stayed in this place second time for a week and I am really glad that I have met man name Arash who works in reception! Thank you for your help with really nice room and advices about gym and breakfast! Great place to stay in LASincerely, EgorMoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed in this place second time for a week and I am really glad that I have met man name Arash who works in reception! Thank you for your help with really nice room and advices about gym and breakfast! Great place to stay in LASincerely, EgorMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r455631342-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>455631342</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t>Great Stay @ The Sherman Hotel</t>
+  </si>
+  <si>
+    <t>I had an amazing stay at the sherman hotel, Bassem made my stay so comfortable. He was so friendly and I was amazed with his hospitality. He helped me a lot guiding me on where to go in LA and for sure i'll be coming back in 2-3 months. A place where I can call home.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had an amazing stay at the sherman hotel, Bassem made my stay so comfortable. He was so friendly and I was amazed with his hospitality. He helped me a lot guiding me on where to go in LA and for sure i'll be coming back in 2-3 months. A place where I can call home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r454595100-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>454595100</t>
+  </si>
+  <si>
+    <t>01/24/2017</t>
+  </si>
+  <si>
+    <t>Awful Hotel - don't let the swanky exterior fall you.</t>
+  </si>
+  <si>
+    <t>This is the by far the worst hotel (I actually don't class it as a hotel) I have ever walked into.  It took me 25 minutes to check in as the night guy was casually chatting with another guest (he didn't even acknowledge me).  As I was standing there waiting, two other guests came in to complain about their showers not working.  I finally checked in and was given a room with two queens as opposed to a king bed that I booked, not a good start.  The room was ice cold (the heater did not work), the smoke alarm was hanging off the wall, a majority of the lights did not work, the TV didn't work, the bathroom was disgustingly dirty, the bed and curtains were stained and the floor was filthy.  The room was basically a very run-down, very old studio apartment which had been painted - to say this has been renovated is so far from the truth.  The photographer did a good job with the photos but in real life this place is awful.  They allow smoking in the hotel so you get random people lurking around at night outside your window puffing away, I wouldn't stay here on my own, let alone with my family.  It's an absolutely disgusting run-down motel at best.  To top it off when I went back to the front desk the guy said, I'm not giving you a refund.  His...This is the by far the worst hotel (I actually don't class it as a hotel) I have ever walked into.  It took me 25 minutes to check in as the night guy was casually chatting with another guest (he didn't even acknowledge me).  As I was standing there waiting, two other guests came in to complain about their showers not working.  I finally checked in and was given a room with two queens as opposed to a king bed that I booked, not a good start.  The room was ice cold (the heater did not work), the smoke alarm was hanging off the wall, a majority of the lights did not work, the TV didn't work, the bathroom was disgustingly dirty, the bed and curtains were stained and the floor was filthy.  The room was basically a very run-down, very old studio apartment which had been painted - to say this has been renovated is so far from the truth.  The photographer did a good job with the photos but in real life this place is awful.  They allow smoking in the hotel so you get random people lurking around at night outside your window puffing away, I wouldn't stay here on my own, let alone with my family.  It's an absolutely disgusting run-down motel at best.  To top it off when I went back to the front desk the guy said, I'm not giving you a refund.  His attitude stunk as much as the rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the by far the worst hotel (I actually don't class it as a hotel) I have ever walked into.  It took me 25 minutes to check in as the night guy was casually chatting with another guest (he didn't even acknowledge me).  As I was standing there waiting, two other guests came in to complain about their showers not working.  I finally checked in and was given a room with two queens as opposed to a king bed that I booked, not a good start.  The room was ice cold (the heater did not work), the smoke alarm was hanging off the wall, a majority of the lights did not work, the TV didn't work, the bathroom was disgustingly dirty, the bed and curtains were stained and the floor was filthy.  The room was basically a very run-down, very old studio apartment which had been painted - to say this has been renovated is so far from the truth.  The photographer did a good job with the photos but in real life this place is awful.  They allow smoking in the hotel so you get random people lurking around at night outside your window puffing away, I wouldn't stay here on my own, let alone with my family.  It's an absolutely disgusting run-down motel at best.  To top it off when I went back to the front desk the guy said, I'm not giving you a refund.  His...This is the by far the worst hotel (I actually don't class it as a hotel) I have ever walked into.  It took me 25 minutes to check in as the night guy was casually chatting with another guest (he didn't even acknowledge me).  As I was standing there waiting, two other guests came in to complain about their showers not working.  I finally checked in and was given a room with two queens as opposed to a king bed that I booked, not a good start.  The room was ice cold (the heater did not work), the smoke alarm was hanging off the wall, a majority of the lights did not work, the TV didn't work, the bathroom was disgustingly dirty, the bed and curtains were stained and the floor was filthy.  The room was basically a very run-down, very old studio apartment which had been painted - to say this has been renovated is so far from the truth.  The photographer did a good job with the photos but in real life this place is awful.  They allow smoking in the hotel so you get random people lurking around at night outside your window puffing away, I wouldn't stay here on my own, let alone with my family.  It's an absolutely disgusting run-down motel at best.  To top it off when I went back to the front desk the guy said, I'm not giving you a refund.  His attitude stunk as much as the rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r452261972-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>452261972</t>
+  </si>
+  <si>
+    <t>01/15/2017</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Felix from the front desk was very helpful and accommodating. I asked Felix if I could check in early and if I could get a room next to the pool area. He told me to check back in an hour and in less than an hour I was able to check in early (around noon) and got the room I wanted! Thank you Felix for being very helpful. MoreShow less</t>
+  </si>
+  <si>
+    <t>Felix from the front desk was very helpful and accommodating. I asked Felix if I could check in early and if I could get a room next to the pool area. He told me to check back in an hour and in less than an hour I was able to check in early (around noon) and got the room I wanted! Thank you Felix for being very helpful. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r449955503-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>449955503</t>
+  </si>
+  <si>
+    <t>01/06/2017</t>
+  </si>
+  <si>
+    <t>Convenient but not for couples</t>
+  </si>
+  <si>
+    <t>This hotel is exactly what my title says "Convenient." If you are looking for a cheap price for a relatively clean hotel in a good area, a place where you are only going to sleep for a few hours and shower, then this is a good place. I thought this place would be better because their website is pretty slick and the hotel is located on Ventura Blvd. pretty much next door to the Sherman Galleria, but was disappointed when I saw the room.Here are my issues with the room:- Hair in the toilet as if someone shaved. Didn't feel comfortable showering becasue the bathroom looked old, but it's an older hotel so I shouldn't have expected much different. - Rear window couldn't be locked shut- "Privacy" drapes to the window by the door did not cover the entire window. Someone could easily peep in and see us so we had to jerry-rig it so no one could see inside. Pros:- Friendly staff- Great price especially since breakfast was provided (bagels, toast, cereal, juice, coffee)- Hotel is in an very good areaI'd recommend this place to single tourists (not couples) looking to save money, but don't expect much from the room!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is exactly what my title says "Convenient." If you are looking for a cheap price for a relatively clean hotel in a good area, a place where you are only going to sleep for a few hours and shower, then this is a good place. I thought this place would be better because their website is pretty slick and the hotel is located on Ventura Blvd. pretty much next door to the Sherman Galleria, but was disappointed when I saw the room.Here are my issues with the room:- Hair in the toilet as if someone shaved. Didn't feel comfortable showering becasue the bathroom looked old, but it's an older hotel so I shouldn't have expected much different. - Rear window couldn't be locked shut- "Privacy" drapes to the window by the door did not cover the entire window. Someone could easily peep in and see us so we had to jerry-rig it so no one could see inside. Pros:- Friendly staff- Great price especially since breakfast was provided (bagels, toast, cereal, juice, coffee)- Hotel is in an very good areaI'd recommend this place to single tourists (not couples) looking to save money, but don't expect much from the room!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r435949896-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>435949896</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>We had to leave</t>
+  </si>
+  <si>
+    <t>We reserved two rooms for four nights, but cancelled our reservation after two nights. The rooms were poorly maintained and didn't have some basic amenities we expect, such as frig and microwave. The rooms did have a TV and wi-fi, but that was about it. The free breakfast was sparse. The pool wasn't heated. The trigger to get us out of there occurred when my daughter flipped on the light in her room and saw cockroaches darting out of sight.MoreShow less</t>
+  </si>
+  <si>
+    <t>Felix C, General Manager at The Sherman Hotel, responded to this reviewResponded November 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2016</t>
+  </si>
+  <si>
+    <t>We reserved two rooms for four nights, but cancelled our reservation after two nights. The rooms were poorly maintained and didn't have some basic amenities we expect, such as frig and microwave. The rooms did have a TV and wi-fi, but that was about it. The free breakfast was sparse. The pool wasn't heated. The trigger to get us out of there occurred when my daughter flipped on the light in her room and saw cockroaches darting out of sight.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r434363991-The_Sherman_Hotel-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>434363991</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GreaT rateS, nice &amp; neWly remodeled </t>
+  </si>
+  <si>
+    <t>Altho the hotel didn't serve the best Continental breakfast it made up with newly remodeled rooms. The liens were cleaned and the rooms didn't have a molded smell like many other L.A's older hotels. The clerk was to honor a website's rate. We definitely visit this place again. Stayed for under $120 on midweek.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded November 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2016</t>
+  </si>
+  <si>
+    <t>Altho the hotel didn't serve the best Continental breakfast it made up with newly remodeled rooms. The liens were cleaned and the rooms didn't have a molded smell like many other L.A's older hotels. The clerk was to honor a website's rate. We definitely visit this place again. Stayed for under $120 on midweek.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1642,2937 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>89</v>
+      </c>
+      <c r="X8" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>89</v>
+      </c>
+      <c r="X9" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>105</v>
+      </c>
+      <c r="X10" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>104</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>89</v>
+      </c>
+      <c r="X11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>89</v>
+      </c>
+      <c r="X12" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>89</v>
+      </c>
+      <c r="X13" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>89</v>
+      </c>
+      <c r="X14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>132</v>
+      </c>
+      <c r="O15" t="s">
+        <v>139</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>89</v>
+      </c>
+      <c r="X15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>89</v>
+      </c>
+      <c r="X16" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>153</v>
+      </c>
+      <c r="X17" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>70</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>153</v>
+      </c>
+      <c r="X18" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>70</v>
+      </c>
+      <c r="O19" t="s">
+        <v>64</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>167</v>
+      </c>
+      <c r="X19" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" t="s">
+        <v>180</v>
+      </c>
+      <c r="L21" t="s">
+        <v>181</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>182</v>
+      </c>
+      <c r="O21" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>183</v>
+      </c>
+      <c r="X21" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" t="s">
+        <v>188</v>
+      </c>
+      <c r="K22" t="s">
+        <v>189</v>
+      </c>
+      <c r="L22" t="s">
+        <v>190</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>191</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>192</v>
+      </c>
+      <c r="X22" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>196</v>
+      </c>
+      <c r="J23" t="s">
+        <v>197</v>
+      </c>
+      <c r="K23" t="s">
+        <v>198</v>
+      </c>
+      <c r="L23" t="s">
+        <v>199</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>200</v>
+      </c>
+      <c r="O23" t="s">
+        <v>64</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>201</v>
+      </c>
+      <c r="X23" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>204</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>205</v>
+      </c>
+      <c r="J24" t="s">
+        <v>206</v>
+      </c>
+      <c r="K24" t="s">
+        <v>207</v>
+      </c>
+      <c r="L24" t="s">
+        <v>208</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>200</v>
+      </c>
+      <c r="O24" t="s">
+        <v>139</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>201</v>
+      </c>
+      <c r="X24" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>211</v>
+      </c>
+      <c r="J25" t="s">
+        <v>212</v>
+      </c>
+      <c r="K25" t="s">
+        <v>213</v>
+      </c>
+      <c r="L25" t="s">
+        <v>214</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>200</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>201</v>
+      </c>
+      <c r="X25" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>217</v>
+      </c>
+      <c r="J26" t="s">
+        <v>218</v>
+      </c>
+      <c r="K26" t="s">
+        <v>219</v>
+      </c>
+      <c r="L26" t="s">
+        <v>220</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>221</v>
+      </c>
+      <c r="O26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>222</v>
+      </c>
+      <c r="X26" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>225</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>226</v>
+      </c>
+      <c r="J27" t="s">
+        <v>227</v>
+      </c>
+      <c r="K27" t="s">
+        <v>228</v>
+      </c>
+      <c r="L27" t="s">
+        <v>229</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>230</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>231</v>
+      </c>
+      <c r="X27" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>234</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>235</v>
+      </c>
+      <c r="J28" t="s">
+        <v>236</v>
+      </c>
+      <c r="K28" t="s">
+        <v>237</v>
+      </c>
+      <c r="L28" t="s">
+        <v>238</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>239</v>
+      </c>
+      <c r="O28" t="s">
+        <v>139</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>231</v>
+      </c>
+      <c r="X28" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>241</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>242</v>
+      </c>
+      <c r="J29" t="s">
+        <v>243</v>
+      </c>
+      <c r="K29" t="s">
+        <v>244</v>
+      </c>
+      <c r="L29" t="s">
+        <v>245</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>239</v>
+      </c>
+      <c r="O29" t="s">
+        <v>139</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>231</v>
+      </c>
+      <c r="X29" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>247</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>248</v>
+      </c>
+      <c r="J30" t="s">
+        <v>249</v>
+      </c>
+      <c r="K30" t="s">
+        <v>250</v>
+      </c>
+      <c r="L30" t="s">
+        <v>251</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>230</v>
+      </c>
+      <c r="O30" t="s">
+        <v>104</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>231</v>
+      </c>
+      <c r="X30" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>253</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>254</v>
+      </c>
+      <c r="J31" t="s">
+        <v>255</v>
+      </c>
+      <c r="K31" t="s">
+        <v>256</v>
+      </c>
+      <c r="L31" t="s">
+        <v>257</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>258</v>
+      </c>
+      <c r="X31" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>261</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>262</v>
+      </c>
+      <c r="J32" t="s">
+        <v>263</v>
+      </c>
+      <c r="K32" t="s">
+        <v>264</v>
+      </c>
+      <c r="L32" t="s">
+        <v>265</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>239</v>
+      </c>
+      <c r="O32" t="s">
+        <v>139</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>266</v>
+      </c>
+      <c r="X32" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>269</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>270</v>
+      </c>
+      <c r="J33" t="s">
+        <v>271</v>
+      </c>
+      <c r="K33" t="s">
+        <v>272</v>
+      </c>
+      <c r="L33" t="s">
+        <v>273</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>239</v>
+      </c>
+      <c r="O33" t="s">
+        <v>64</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>274</v>
+      </c>
+      <c r="X33" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>277</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>278</v>
+      </c>
+      <c r="J34" t="s">
+        <v>279</v>
+      </c>
+      <c r="K34" t="s">
+        <v>280</v>
+      </c>
+      <c r="L34" t="s">
+        <v>281</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>239</v>
+      </c>
+      <c r="O34" t="s">
+        <v>64</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>282</v>
+      </c>
+      <c r="X34" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>285</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>286</v>
+      </c>
+      <c r="J35" t="s">
+        <v>287</v>
+      </c>
+      <c r="K35" t="s">
+        <v>288</v>
+      </c>
+      <c r="L35" t="s">
+        <v>289</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>239</v>
+      </c>
+      <c r="O35" t="s">
+        <v>104</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>274</v>
+      </c>
+      <c r="X35" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>291</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>292</v>
+      </c>
+      <c r="J36" t="s">
+        <v>293</v>
+      </c>
+      <c r="K36" t="s">
+        <v>294</v>
+      </c>
+      <c r="L36" t="s">
+        <v>295</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>239</v>
+      </c>
+      <c r="O36" t="s">
+        <v>139</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>274</v>
+      </c>
+      <c r="X36" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>297</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>298</v>
+      </c>
+      <c r="J37" t="s">
+        <v>293</v>
+      </c>
+      <c r="K37" t="s">
+        <v>299</v>
+      </c>
+      <c r="L37" t="s">
+        <v>300</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>239</v>
+      </c>
+      <c r="O37" t="s">
+        <v>139</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>274</v>
+      </c>
+      <c r="X37" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>302</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>303</v>
+      </c>
+      <c r="J38" t="s">
+        <v>304</v>
+      </c>
+      <c r="K38" t="s">
+        <v>305</v>
+      </c>
+      <c r="L38" t="s">
+        <v>306</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>307</v>
+      </c>
+      <c r="O38" t="s">
+        <v>64</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>308</v>
+      </c>
+      <c r="X38" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>311</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>312</v>
+      </c>
+      <c r="J39" t="s">
+        <v>313</v>
+      </c>
+      <c r="K39" t="s">
+        <v>314</v>
+      </c>
+      <c r="L39" t="s">
+        <v>315</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>239</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>308</v>
+      </c>
+      <c r="X39" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>317</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>318</v>
+      </c>
+      <c r="J40" t="s">
+        <v>313</v>
+      </c>
+      <c r="K40" t="s">
+        <v>319</v>
+      </c>
+      <c r="L40" t="s">
+        <v>320</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>307</v>
+      </c>
+      <c r="O40" t="s">
+        <v>59</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>308</v>
+      </c>
+      <c r="X40" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>322</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>323</v>
+      </c>
+      <c r="J41" t="s">
+        <v>324</v>
+      </c>
+      <c r="K41" t="s">
+        <v>325</v>
+      </c>
+      <c r="L41" t="s">
+        <v>326</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>307</v>
+      </c>
+      <c r="O41" t="s">
+        <v>104</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>308</v>
+      </c>
+      <c r="X41" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>328</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>329</v>
+      </c>
+      <c r="J42" t="s">
+        <v>324</v>
+      </c>
+      <c r="K42" t="s">
+        <v>330</v>
+      </c>
+      <c r="L42" t="s">
+        <v>331</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>307</v>
+      </c>
+      <c r="O42" t="s">
+        <v>104</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>308</v>
+      </c>
+      <c r="X42" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>333</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>334</v>
+      </c>
+      <c r="J43" t="s">
+        <v>335</v>
+      </c>
+      <c r="K43" t="s">
+        <v>336</v>
+      </c>
+      <c r="L43" t="s">
+        <v>337</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>307</v>
+      </c>
+      <c r="O43" t="s">
+        <v>139</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>308</v>
+      </c>
+      <c r="X43" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>339</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>340</v>
+      </c>
+      <c r="J44" t="s">
+        <v>341</v>
+      </c>
+      <c r="K44" t="s">
+        <v>342</v>
+      </c>
+      <c r="L44" t="s">
+        <v>343</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>307</v>
+      </c>
+      <c r="O44" t="s">
+        <v>64</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>308</v>
+      </c>
+      <c r="X44" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>345</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>346</v>
+      </c>
+      <c r="J45" t="s">
+        <v>347</v>
+      </c>
+      <c r="K45" t="s">
+        <v>348</v>
+      </c>
+      <c r="L45" t="s">
+        <v>349</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>307</v>
+      </c>
+      <c r="O45" t="s">
+        <v>139</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>308</v>
+      </c>
+      <c r="X45" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>351</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>352</v>
+      </c>
+      <c r="J46" t="s">
+        <v>353</v>
+      </c>
+      <c r="K46" t="s">
+        <v>354</v>
+      </c>
+      <c r="L46" t="s">
+        <v>355</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>307</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>308</v>
+      </c>
+      <c r="X46" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>357</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>358</v>
+      </c>
+      <c r="J47" t="s">
+        <v>359</v>
+      </c>
+      <c r="K47" t="s">
+        <v>360</v>
+      </c>
+      <c r="L47" t="s">
+        <v>361</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>362</v>
+      </c>
+      <c r="X47" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>11961</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>365</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>366</v>
+      </c>
+      <c r="J48" t="s">
+        <v>367</v>
+      </c>
+      <c r="K48" t="s">
+        <v>368</v>
+      </c>
+      <c r="L48" t="s">
+        <v>369</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>370</v>
+      </c>
+      <c r="O48" t="s">
+        <v>64</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>371</v>
+      </c>
+      <c r="X48" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>373</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_776.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_776.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="421">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Mike B</t>
+  </si>
+  <si>
     <t>07/12/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Krystal E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r590018036-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>mptaylor73</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r590004670-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>graydebra792</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r588886464-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t>This is the worst hotel I have ever stayed at!  I'm glad it was only for one night.  There was a bedbug that I killed on the bed and I stay awake half the night just waiting.  The room was in terrible condition, they advertised renovated rooms and if this room was renovated (remodeled) I would hate to see the rooms that weren't!  The bathroom was horrible!!  I didn't even open the shower because I was afraid to look in!  Since we were down for a family graduation dinner at a restaurant nearby, I took toilet seat covers with me to use at the hotel!  Wasn't for those, I would have tried everything not to use the toilet!!  More</t>
   </si>
   <si>
+    <t>Lily R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r588204397-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -249,6 +264,9 @@
     <t>The 1st room they gave me was horrible. It was nothing like the picture. Dirty carpet, mold in the shower, and bed skirts were dirty. I asked for another room which was 122 and it had wood floring and looked more decent. Ask to see the room 1st since not all are remodel. This hotel is definitely a 2 star, looks nicer in the pictures.</t>
   </si>
   <si>
+    <t>camperbear</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r585842985-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -267,6 +285,9 @@
     <t>What a disappointment the place was not anywhere near the advertised condition in any wayThe place was clean and well stocked but the bed was broken the furniture was old and nasty the shower only barely worked and the access to the building was difficult It’s in a terrible neighborhood the parking was lot was packed every night when we came back to the hotel You don’t want to park on the street so had to wait for a car to leave....There is no one on site you have to call s number to get anyone to helpFor anything and no maid service We were supposed toStay for five days and left after two More</t>
   </si>
   <si>
+    <t>susansmith829</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r577658677-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -294,6 +315,9 @@
     <t>Maricela is so helpful and sweet makes us feel like we are home she is always welcoming even if she looks extremely busy when we enter the lobby the breakfast is simple but it's something light to start the day . Very good location right next to universal studios we had a great family vacation no doubt ! For sure we will be coming back here and making our reservation directly with the hotel they have AAA discount which is amazing saved a couple of bucks.More</t>
   </si>
   <si>
+    <t>mom2my4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r577426186-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -315,6 +339,9 @@
     <t>I needed a affordable room for me and my kiddos for a quick weekend trip to Universal Studios. This place had decent rates and okay ratings. Overall, it accomplished what I needed it to. Best feature: lobby and front desk people. Worst feature: rooms are pretty old and run down. The breakfast in the morning was decent. I felt safe at this location with my kids which to me is huge. The lobby is very pretty. And the staff was super nice.We couldn't get the remote for the TV to work because you have to change settings and the instructions were posted on the door and we didn't see this until the next day but that is not the end of the world.More</t>
   </si>
   <si>
+    <t>hotelreviewer12358</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r577244669-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -342,6 +369,9 @@
     <t>My friend and I stayed here for vacation and it was AWFUL. There was non stop problems from the moment we arrived. Staff was incredibly rude, wifi did not work, maids did not clean the room ONCE in the duration of our stay. The room was very dirty and had an awful smell. We were promised free parking for our stay but the parking lot was almost always full, they told us it wasn’t their problem and to pay for road parking. The other guests were having hookers in and out of their rooms, they were also extremely loud. The maids were threatening us saying “If they weren’t in a uniform they would beat us up”. There was always cops in the parking lot and going into rooms. We felt incredibly unsafe here and did not finish our stay here, trust me, spend the extra money and stay somewhere else.More</t>
   </si>
   <si>
+    <t>Patti S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r570300896-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -363,6 +393,9 @@
     <t>I had been disappointed at another hotel in the area and this was so much better.  Many outlets in convenient places.  Hardwood floor so room felt much cleaner.  Just down the street from Galleria where I walked to cheesecake factory and also Starbucks.   Was less expensive to book at the desk than to try on line.  Was also less expensive than other worse hotel.  Typical continental breakfast which is not best for a diabetic.  No fridge or microwave for saving your leftovers.  I would visit againMore</t>
   </si>
   <si>
+    <t>Janet C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r567780456-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -381,6 +414,9 @@
     <t>I went for a family trip to universal studios and it was raining. We stayed there 2 nights but there heaters weren’t working I booked 3 rooms for my family and I and 2 of the rooms were super cold and we only had a thin sheet for a blanket my 2 year old kept waking up crying because it was cold I had to literally put on like 3 layers of Clothes. We got there late at night and the person checking us in told us that some of the heaters didn’t work if we would take the room like that. It was like 1AM so of course we said yes. I don’t think I would stay here again. More</t>
   </si>
   <si>
+    <t>dar1een</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r566570338-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -399,6 +435,9 @@
     <t>Here's what's wrong with the Sherman Hotel1) First, it is a motel and not a hotel2) Walls are thin and you'll hear all the noises above you and from the rooms next to you.3) We stayed in Room 107 and the key card access entry system was broken.  Each time we want to enter our room, I have to ask the Front desk rep to walk down to Room 107 to open the door for us using his Master key card.  4) We put the "Please clean room" sign on our door and left for the day.  When we return 8 hours later, the room was not cleaned.5) Internet wifi was unreliable and weak.  Unable to watch movies.6) For the price we paid, it was definitely NOT worth it.More</t>
   </si>
   <si>
+    <t>Jennifer H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r561688111-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -420,6 +459,9 @@
     <t>We had clean room and staff was great no problems at all I would stay here again for sure thanks Sam Pasion . The breakfast is easy and convenient everything was clean more than I expected location is rite and price was rite thank you Sherman hotel More</t>
   </si>
   <si>
+    <t>pasquino b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r561266220-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -441,6 +483,9 @@
     <t>My one night stay started off poorly and went down hill. Check in time isn't until 3:00 and I got there almost on the hour. But I still had to wait almost an hour for my room to be cleaned.The room was poorly lit. But the closet space was even darker and I had to go find a housekeeper to get hangers!I went out for the evening and returned at 11:00 to find all of the parking occupied. I finally got a spot at the opposite end of the property. The bed was reasonably comfortable. Breakfast is a bad joke.I could go on but that's enough. I won't be back.More</t>
   </si>
   <si>
+    <t>RubenPadilla28</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r559248847-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -459,6 +504,9 @@
     <t>I felt welcomed as soon as I got to the hotel the service was incredible the housekeeping worker Lulu was super nice and kind she did an excellent job with welcoming me I would definitely come back again !More</t>
   </si>
   <si>
+    <t>Paula B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r556388383-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -486,6 +534,9 @@
     <t>A real dump.  We should have guessed that the low rate was too good to be true.  The property was nothing like the photos shown on hotel websites.  We knew we were in trouble when we arrived and used the bathroom in our room and there were no towels provided.  Towels were not available until late in the evening.  The property was very poorly managed and front desk staff were more interested in texting than attending to guests needs. The continental breakfast was a joke, and the WiFi was non-existent.  Guests were re-directed to the unsecured network of a neighboring business.  Overall, our stay was extremely uncomfortable and unpleasant.More</t>
   </si>
   <si>
+    <t>Rhonda H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r554849346-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -504,6 +555,9 @@
     <t>Your stay cannot get any better here. The location is great, the rooms are modern and clean and most importantly the entire staff is absolutely amazing and accommodating. Maricela and Felix at the front desk are more than helpful. Thank you all Sherman Hotel staff.More</t>
   </si>
   <si>
+    <t>Patchelle W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r554020326-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -528,6 +582,9 @@
     <t>I’d just like to say this place was great the young lady at the front desk was absolutely amazing and very efficient.Also the room was Amazing and very clean.I would recommend this hotel to my closest friends.Thank you Maricela for your helpMore</t>
   </si>
   <si>
+    <t>abhcoop</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r542742230-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -549,6 +606,9 @@
     <t>The photos make this hotel look pretty ok. The location is convenient. The staff was helpful. Having said that, we were greeted by a roach, which I kind of expect in a hot climate.  The room was clean and it seemed like they had tried to spruce the place up but the bathroom and the kitchenette were old and poorly maintained.  They ran out of washcloths and hand towels while we were there.  The housekeeper did a good job cleaning but didn't have all the supplies needed to leave the room ready. The Sherman could be a really cute place with some time and money put into it. I think we paid about $40 a night too much for it's current condition.More</t>
   </si>
   <si>
+    <t>meashuy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r511088965-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -576,6 +636,9 @@
     <t>A brief run down of the facility, the room was respectably clean and tidy. Bad lighting as they didnt have room lights but sidetable lamps. TV didnt work. But these are not the reasons why my experience at the hotel was unpleasant. On Saturday afternoon I had an uber driver that picked me up from the hotel reception and dropped me off at my requested destination. Later on that evening at 11pm I had a knock on my door. To my surprise it was the Uber driver, asking me if he could come into my room.... (and of course I said no!!). Then he asked me if I wanted to go out for a drink (again I said no). I cant help but assumed that the receptionist must of told him my room number and I just think that is a breach of guest's privacy and there should be serious actions taken by the management team to ensure nothing like this happens again to anyone else!! Luckily the guy was harmless and Im someone who is capable of defending myself in those kind of situatutions. But if it had happened to another girl-solo traveller then who knows what might of happened!More</t>
   </si>
   <si>
+    <t>Michael S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r507392100-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -603,6 +666,9 @@
     <t>This is a run down MOTEL in desperate need of a full renovation.  The towels were old, and one was even blood stained. The bathroom was barely tolerable. The room was loud. One plus, the bed was clean.More</t>
   </si>
   <si>
+    <t>Renata P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r498266459-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -630,6 +696,9 @@
     <t>I booked a one night stay with Sherman Hotels.  Upon arriving for my CONFIRMED 12pm check in, the young lady at the front desk, Ana, let me know that check in is not until 3pm.  I showed her my confirmation page where it CLEARLY says check in is at 12pm.  If I would've know it wasn't until 3pm I would've arrived later.  She was absolutely unhelpful and her only solution to my problem was "would you like to cancel?".  I work in customer service myself and as far as I'm concerned even if a situation is out of your hands, you can at least act like you care about your upset customer.  But not Ana.  The actual stay was pleasant.  Cleaning staff was friendly.  I check out after one night and get back home.  Upon arriving the next day I notice a few charges from Sherman hotels, one for $100 deposit, another for $137, which were both fine.  However there was another charge for $227.  It was showing up as pending, however it was already taken out of my balance.  I call the hotel and get, guess who, Ana.  She claimed that they got a new system and it wasn't showing up on her end.  She said she would call back to let me know what she was able to do.  Never got a call back.  So I call her back and she said oh yeah I can't do anything...I booked a one night stay with Sherman Hotels.  Upon arriving for my CONFIRMED 12pm check in, the young lady at the front desk, Ana, let me know that check in is not until 3pm.  I showed her my confirmation page where it CLEARLY says check in is at 12pm.  If I would've know it wasn't until 3pm I would've arrived later.  She was absolutely unhelpful and her only solution to my problem was "would you like to cancel?".  I work in customer service myself and as far as I'm concerned even if a situation is out of your hands, you can at least act like you care about your upset customer.  But not Ana.  The actual stay was pleasant.  Cleaning staff was friendly.  I check out after one night and get back home.  Upon arriving the next day I notice a few charges from Sherman hotels, one for $100 deposit, another for $137, which were both fine.  However there was another charge for $227.  It was showing up as pending, however it was already taken out of my balance.  I call the hotel and get, guess who, Ana.  She claimed that they got a new system and it wasn't showing up on her end.  She said she would call back to let me know what she was able to do.  Never got a call back.  So I call her back and she said oh yeah I can't do anything about it, my manager works tomorrow.  Ok......thanks for the call back.  Long story short I am very disappointed in the customer service I received from this hotel, and they kept charging until it was over $700 in charges.......total nightmare.  NEVER STAYING HERE AGAIN.More</t>
   </si>
   <si>
+    <t>yehoram</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r495941107-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -646,6 +715,9 @@
   </si>
   <si>
     <t>I stayed 12 nights recently - it was my fourth stay at The Sherman Hotel.  Every year I look forward to seeing the smiling, friendly, helpful staff, led by Felix the General Manager.   The rooms are very clean; some with carpet and some with wood floor.   They serve a simple breakfast in the lobby and all the guests from all over the world meet.  The hotel has been majorly renovated over the last four years, every year it is nicer, but the staff remain and are the core of the experience here.  The tone comes from the top and obviously Felix sets the tone, but maintenance, housekeeping, and front desk staff are excellent.More</t>
+  </si>
+  <si>
+    <t>Ifenyinwa A</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r493804262-The_Sherman_Hotel-Los_Angeles_California.html</t>
@@ -670,6 +742,9 @@
 On top of all that, I had mentioned off-hand that it was...After a HORRIBLE experience using Airbnb, my boyfriend and I needed a last-minute place. I had already booked The Sherman for the next two nights, but we called them a night early asking if we can book a room. Despite being around 8:30pm, they were able to accommodate us for around $99. Not bad! The next two days I had booked through Booking.com, and it cost me $220. For the area, this price is great.Sherman Hotel is not the Hilton, but it is very comfortable, clean, there are no shady people milling about, the pool is crystal clear, and the noise level was kept at a minimum. Free breakfast was good, with cereal, bagels, toast and coffee. They are great at accommodating your needs. For example, I brought my makeup case with me. We had to check out of our room the first night, them we would check back in for our other room that I had previously booked for two nights. Problem was, we had to keep our things in the car while at Universal Studios for the day. Worried about my makeup melting, I asked what I could do. They kept my makeup case for me in a backroom with my name on it, so I didn't have to leave it in the car! We also needed extra towels, and were given them right away.On top of all that, I had mentioned off-hand that it was my birthday the next day. When we came home from our second day spent at Universal, there were flowers, cupcakes and a birthday card waiting for me on the bed, signed by the staff!! I mean, who does that?!? I thought the gesture was very sweet. I think for the price and for the staff, The Sherman Hotel is an excellent choice.More</t>
   </si>
   <si>
+    <t>lfad17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r474680652-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -697,6 +772,9 @@
     <t>For anyone looking for an economical place in an affluent community like Sherman Oaks, this place may be a good location. Very adjacent to restaurants and places to go to in LA. Thank you Mikey for the excellent service. Keep it up.More</t>
   </si>
   <si>
+    <t>jerrym59c13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r468692511-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -724,6 +802,9 @@
     <t>this hotel is very affordable it sis super clean the only service is a continental breakfast otherwise there is only soft drink machines you can hear everything outside&lt; traffic remember you are on ventura blv &gt;making it hard if you are a light sleeper .and i found the ac. unit not that goodMore</t>
   </si>
   <si>
+    <t>Karima K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r467436898-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -745,6 +826,9 @@
     <t>I've been staying at the Sherman hotel for 2 months now and I definitely recommend it to everyone who's looking for economy and quality stay. I want to start off by telling that there is no better place in Sherman Oaks for that price. It is close to freeway, restaurants and all the other tourist attraction places. The hotel is newly renovated, rooms are always clean as well as the design and interior is high rate. I want to separately emphasize great customer service and friendly atmosphere at the hotel. All staff members are extremely polite and are always happy to help you out with everything. Special and big thank you to Arash and Mickey for always going out of their way to help meet out. Very professional and responsive. I want to thank all people working at the hotel for making my stay comfortable and joyful. KarimaMore</t>
   </si>
   <si>
+    <t>davidnewyork2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r465701361-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -763,6 +847,9 @@
     <t>After looking at at least 5 hotels on Ventura Blvd. I finally found this amazing place. Hardwood floors in a Motel unheard of !!!!!!! Newly remodeled. Tasty designed bath. Clean ! Clean ! Superclean! Very friendly staff. I would highly recommend this Hotel. Don't go somewhere else you will not find a place like this at this not expensive price.One thing : I am absolutely not affiliated with the owner or manager. I am pretty critical and picky about hotels and restaurant and bar etc. So my opinion is pretty reliable. Thank you the owner manager and the staff. DavidMore</t>
   </si>
   <si>
+    <t>Rain B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r465240497-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -781,6 +868,9 @@
     <t>I was up at 1:30 a.m and went to the lobby to ask help from the front desk. And I was very lucky to be assisted by Bassem who was very helpful and kind to help us with our request. Trully an awesome guy.. happy customer hereMore</t>
   </si>
   <si>
+    <t>Nancy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r463297092-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -805,6 +895,9 @@
     <t>I stayed here for 3 nights with a friend at the end of January. This is a motel with very few amenities. The room barely had essentials such as towels and wash cloths. The room was pretty small and had a faint smell of mold. At night we got very cold and didn't realize that the AC was the heater. People passing by can easily see in the room. One of the days we returned to our room we found a cigar in our bed. We didn't say anything to the front desk. There was also no phone in the room in order to call the front desk. The location was great about 15 mins to Hollywood Blvd. There are restaurants nearby as well. More</t>
   </si>
   <si>
+    <t>Byron W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r460559072-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -829,6 +922,9 @@
     <t>Overall my stay was good. The rep at the front desk, Maricela, was especially helpful in explaining the hotels policies and eased my mind on my stay at The Sherman hotel. Maricela also had great ideas to improve communication between  co workers.More</t>
   </si>
   <si>
+    <t>milanesleo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r459912977-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -853,6 +949,9 @@
     <t>Great hotel, Mikey at front desk is just awesome always helping in everything we need .Rooms are clean, very competitive prices.nice free breakfast with wifi.nice location, feel very safe place. I will definitely come back and stay here.More</t>
   </si>
   <si>
+    <t>ryanmcgrath2003</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r459464388-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -877,6 +976,9 @@
     <t>Lovely spot, Felix the General Manager and Mikey at front desk were incredibly helpful and went that extra mile to make my stay as impeccable as possible. This has now become my Hotel of choice in the area every time I visit.Thanks again!!!More</t>
   </si>
   <si>
+    <t>kittymuse13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r458418945-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -895,6 +997,9 @@
     <t>This hotel defintley surprised me by being quite a lovely little place. The rooms are clean and we'll priced.Sonny,Mickey and Arash are delightful and help make any stay here as comfortable as possible.More</t>
   </si>
   <si>
+    <t>Brandon M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r458225452-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -913,6 +1018,9 @@
     <t>This place is a wonderful hotel the staff is nice. If you use any hotel booking sites make sure its done in advance or the check can take a couple extra minutes but other than that everything went smoothly. The rooms are comfortable and private. Definitely would reccomend this to anyone looking for a good place to sleep at a pretty great price. Mikey was helpful as was all the staff here. And from what I saw they will go to extra lengths to resolve any issues you may have.More</t>
   </si>
   <si>
+    <t>Ryan P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r458177329-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -928,6 +1036,9 @@
     <t>Checking in was a breeze, and the facilities are great. Arash helped me out, I got checked into a room quickly and everything went very smooth. Rooms are nice and quiet. 10/10 would recommend if your in the area.More</t>
   </si>
   <si>
+    <t>fgverissage</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r457442484-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -955,6 +1066,9 @@
     <t>Nice, clean, very friendly Staff from Reception Desk , Mr. Arash to the Maid Service.Helpful in every way. We have stayed their twice already, great Location, great Price for Los Angeles Metropol. Beverly Hills over the Hill just 20 minutes, Downtown Los Angeles 17 minutes, quite, secured Hotel.More</t>
   </si>
   <si>
+    <t>Barb D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r457151899-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -973,6 +1087,9 @@
     <t>This is an older hotel but very clean and the location and price is definitely a big plus.  The manager Mikey was very helpful, pleasant, and accommodating.   We were so pleased, we booked rooms for an additional stay on our return trip,More</t>
   </si>
   <si>
+    <t>Olegario Jose N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r457139277-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -988,6 +1105,9 @@
     <t>Was a pleasure stay. The room was very clean and neat. The service was perfect. All that we expect was fulfilled. At the check ou we're gladly attended for Bassem who were a great and respectful person. I definitely recommend this place for families and who ever wants a quiet and warm place to stay. ❤❤ More</t>
   </si>
   <si>
+    <t>Mariia H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r456070271-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1006,6 +1126,9 @@
     <t>I stayed in this hotel 5 days. They met me so welcome and make check in very quickly. Guy Arash on reception were very intelligent. Hotel is clean and room is big and clean also. Price is good. Next time I will plan to stay again. More</t>
   </si>
   <si>
+    <t>Egor S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r456042410-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1021,6 +1144,9 @@
     <t>I have stayed in this place second time for a week and I am really glad that I have met man name Arash who works in reception! Thank you for your help with really nice room and advices about gym and breakfast! Great place to stay in LASincerely, EgorMore</t>
   </si>
   <si>
+    <t>merssedeh2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r455631342-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1039,6 +1165,9 @@
     <t>I had an amazing stay at the sherman hotel, Bassem made my stay so comfortable. He was so friendly and I was amazed with his hospitality. He helped me a lot guiding me on where to go in LA and for sure i'll be coming back in 2-3 months. A place where I can call home.More</t>
   </si>
   <si>
+    <t>Austin R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r454595100-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1057,6 +1186,9 @@
     <t>This is the by far the worst hotel (I actually don't class it as a hotel) I have ever walked into.  It took me 25 minutes to check in as the night guy was casually chatting with another guest (he didn't even acknowledge me).  As I was standing there waiting, two other guests came in to complain about their showers not working.  I finally checked in and was given a room with two queens as opposed to a king bed that I booked, not a good start.  The room was ice cold (the heater did not work), the smoke alarm was hanging off the wall, a majority of the lights did not work, the TV didn't work, the bathroom was disgustingly dirty, the bed and curtains were stained and the floor was filthy.  The room was basically a very run-down, very old studio apartment which had been painted - to say this has been renovated is so far from the truth.  The photographer did a good job with the photos but in real life this place is awful.  They allow smoking in the hotel so you get random people lurking around at night outside your window puffing away, I wouldn't stay here on my own, let alone with my family.  It's an absolutely disgusting run-down motel at best.  To top it off when I went back to the front desk the guy said, I'm not giving you a refund.  His...This is the by far the worst hotel (I actually don't class it as a hotel) I have ever walked into.  It took me 25 minutes to check in as the night guy was casually chatting with another guest (he didn't even acknowledge me).  As I was standing there waiting, two other guests came in to complain about their showers not working.  I finally checked in and was given a room with two queens as opposed to a king bed that I booked, not a good start.  The room was ice cold (the heater did not work), the smoke alarm was hanging off the wall, a majority of the lights did not work, the TV didn't work, the bathroom was disgustingly dirty, the bed and curtains were stained and the floor was filthy.  The room was basically a very run-down, very old studio apartment which had been painted - to say this has been renovated is so far from the truth.  The photographer did a good job with the photos but in real life this place is awful.  They allow smoking in the hotel so you get random people lurking around at night outside your window puffing away, I wouldn't stay here on my own, let alone with my family.  It's an absolutely disgusting run-down motel at best.  To top it off when I went back to the front desk the guy said, I'm not giving you a refund.  His attitude stunk as much as the rooms.More</t>
   </si>
   <si>
+    <t>Naomi A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r452261972-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1075,6 +1207,9 @@
     <t>Felix from the front desk was very helpful and accommodating. I asked Felix if I could check in early and if I could get a room next to the pool area. He told me to check back in an hour and in less than an hour I was able to check in early (around noon) and got the room I wanted! Thank you Felix for being very helpful. More</t>
   </si>
   <si>
+    <t>Patrick S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r449955503-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1093,6 +1228,9 @@
     <t>This hotel is exactly what my title says "Convenient." If you are looking for a cheap price for a relatively clean hotel in a good area, a place where you are only going to sleep for a few hours and shower, then this is a good place. I thought this place would be better because their website is pretty slick and the hotel is located on Ventura Blvd. pretty much next door to the Sherman Galleria, but was disappointed when I saw the room.Here are my issues with the room:- Hair in the toilet as if someone shaved. Didn't feel comfortable showering becasue the bathroom looked old, but it's an older hotel so I shouldn't have expected much different. - Rear window couldn't be locked shut- "Privacy" drapes to the window by the door did not cover the entire window. Someone could easily peep in and see us so we had to jerry-rig it so no one could see inside. Pros:- Friendly staff- Great price especially since breakfast was provided (bagels, toast, cereal, juice, coffee)- Hotel is in an very good areaI'd recommend this place to single tourists (not couples) looking to save money, but don't expect much from the room!More</t>
   </si>
   <si>
+    <t>Bob S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r435949896-The_Sherman_Hotel-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1115,6 +1253,9 @@
   </si>
   <si>
     <t>We reserved two rooms for four nights, but cancelled our reservation after two nights. The rooms were poorly maintained and didn't have some basic amenities we expect, such as frig and microwave. The rooms did have a TV and wi-fi, but that was about it. The free breakfast was sparse. The pool wasn't heated. The trigger to get us out of there occurred when my daughter flipped on the light in her room and saw cockroaches darting out of sight.More</t>
+  </si>
+  <si>
+    <t>007Anna</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d6985850-r434363991-The_Sherman_Hotel-Los_Angeles_California.html</t>
@@ -1646,43 +1787,47 @@
       <c r="A2" t="n">
         <v>11961</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1696,50 +1841,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>11961</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1753,50 +1902,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>11961</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1810,50 +1963,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>11961</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1867,50 +2024,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>11961</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1924,50 +2085,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>11961</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1981,50 +2146,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>11961</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2036,56 +2205,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="X8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>11961</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2101,56 +2274,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="X9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>11961</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2162,56 +2339,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="X10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>11961</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" t="s">
         <v>113</v>
-      </c>
-      <c r="O11" t="s">
-        <v>104</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2223,56 +2404,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="X11" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>11961</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2284,56 +2469,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="X12" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>11961</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -2351,56 +2540,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="X13" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>11961</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2412,56 +2605,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="X14" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>11961</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2473,56 +2670,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="X15" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="Y15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>11961</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2534,56 +2735,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="X16" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="Y16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>11961</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2595,56 +2800,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="X17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="Y17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>11961</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="K18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2662,56 +2871,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="X18" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="Y18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>11961</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>179</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="J19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="K19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2723,56 +2936,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="X19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="Y19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>11961</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>188</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="J20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="K20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2786,50 +3003,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>11961</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>196</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="J21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="K21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="O21" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -2847,56 +3068,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="X21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="Y21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>11961</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>206</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="J22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="K22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="L22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2914,56 +3139,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="X22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="Y22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>11961</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>216</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="J23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="K23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="O23" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -2981,56 +3210,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="X23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="Y23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>11961</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>226</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="J24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="K24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="O24" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3046,56 +3279,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="X24" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="Y24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>11961</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>233</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="J25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="K25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3111,56 +3348,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="X25" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="Y25" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>11961</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>240</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="J26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="K26" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="O26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3178,56 +3419,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="X26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="Y26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>11961</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>250</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="J27" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="K27" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3245,56 +3490,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="X27" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="Y27" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>11961</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>260</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="J28" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="K28" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="O28" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3310,56 +3559,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="X28" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="Y28" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>11961</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>268</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="J29" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="K29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="O29" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3377,56 +3630,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="X29" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="Y29" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>11961</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>275</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="J30" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="K30" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="O30" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3438,47 +3695,51 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="X30" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="Y30" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>11961</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>282</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="J31" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="K31" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
@@ -3495,56 +3756,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="X31" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="Y31" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>11961</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>291</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="J32" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="K32" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="L32" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="O32" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3556,56 +3821,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="X32" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="Y32" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>11961</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>300</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="J33" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="K33" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="O33" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3621,56 +3890,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="X33" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="Y33" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>11961</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>309</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="J34" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="K34" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="L34" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="O34" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3682,56 +3955,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="X34" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="Y34" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>11961</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>318</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="J35" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="K35" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="L35" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="O35" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -3743,56 +4020,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="X35" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="Y35" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>11961</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>325</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="J36" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="K36" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="L36" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="O36" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -3810,56 +4091,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="X36" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="Y36" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>11961</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>332</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="J37" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="K37" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="L37" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="O37" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -3871,56 +4156,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="X37" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="Y37" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>11961</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>338</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="J38" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="K38" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="L38" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="O38" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -3938,56 +4227,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="X38" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="Y38" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>11961</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>348</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="J39" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="K39" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="L39" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4005,56 +4298,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="X39" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="Y39" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>11961</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>355</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="J40" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="K40" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="L40" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="O40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4066,56 +4363,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="X40" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="Y40" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>11961</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>361</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
       <c r="J41" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="K41" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="L41" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="O41" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4127,56 +4428,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="X41" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="Y41" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>11961</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>368</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="J42" t="s">
-        <v>324</v>
+        <v>364</v>
       </c>
       <c r="K42" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="L42" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="O42" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4188,56 +4493,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="X42" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="Y42" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>11961</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>374</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="J43" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="K43" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="L43" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="O43" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -4255,56 +4564,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="X43" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="Y43" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>11961</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>381</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="J44" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="K44" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="L44" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="O44" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P44" t="n">
         <v>2</v>
@@ -4320,56 +4633,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="X44" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="Y44" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>11961</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>388</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="J45" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="K45" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="L45" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="O45" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4381,56 +4698,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="X45" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="Y45" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>11961</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>395</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="J46" t="s">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="K46" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="L46" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>2</v>
@@ -4446,47 +4767,51 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="X46" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="Y46" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>11961</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>402</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="J47" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="K47" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="L47" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
@@ -4503,56 +4828,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>362</v>
+        <v>408</v>
       </c>
       <c r="X47" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="Y47" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>11961</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>411</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
       <c r="J48" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="K48" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="L48" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="O48" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -4564,13 +4893,13 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="X48" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="Y48" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
